--- a/public/files/template/inventory/kibc.xlsx
+++ b/public/files/template/inventory/kibc.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>KARTU INVENTARIS BARANG (KIB) C</t>
   </si>
@@ -156,13 +156,34 @@
   </si>
   <si>
     <t xml:space="preserve"> [a.hak]</t>
+  </si>
+  <si>
+    <t>[b.kd_prov]</t>
+  </si>
+  <si>
+    <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>BIDANG KESEHATAN</t>
+  </si>
+  <si>
+    <t>SUDIN KESEHATAN MASYARAKAT</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_kec]</t>
+  </si>
+  <si>
+    <t>PKM [b.kd_upb]</t>
+  </si>
+  <si>
+    <t>[b.kode]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +206,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -345,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -430,6 +457,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,57 +517,50 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Provinsi</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="B4" t="str">
             <v>Kab./Kota</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>KOTA JAKARTA TIMUR</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
             <v>Bidang</v>
           </cell>
-          <cell r="G5" t="str">
-            <v>BIDANG KESEHATAN</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
             <v>Unit Organisasi</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>SUDIN KESEHATAN MASYARAKAT</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
             <v>Sub Unit Organisasi</v>
           </cell>
-          <cell r="G7" t="str">
-            <v>PKM KEC. MATRAMAN</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
             <v>U P B</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>PKM KEC. MATRAMAN</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
             <v xml:space="preserve">NO. KODE LOKASI </v>
           </cell>
-          <cell r="G9" t="str">
-            <v>11.09.05.07.01.09.57.00</v>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>GEDUNG DAN BANGUNAN</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -832,7 +858,7 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G15"/>
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,9 +929,8 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>'[1]KIB A'!G4</f>
-        <v>KOTA JAKARTA TIMUR</v>
+      <c r="G4" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -928,9 +953,8 @@
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f>'[1]KIB A'!G5</f>
-        <v>BIDANG KESEHATAN</v>
+      <c r="G5" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -953,9 +977,8 @@
       <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f>'[1]KIB A'!G6</f>
-        <v>SUDIN KESEHATAN MASYARAKAT</v>
+      <c r="G6" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -978,9 +1001,8 @@
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f>'[1]KIB A'!G7</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G7" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1003,9 +1025,8 @@
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f>'[1]KIB A'!G8</f>
-        <v>PKM KEC. MATRAMAN</v>
+      <c r="G8" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
@@ -1030,9 +1051,8 @@
       <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f>'[1]KIB A'!G9</f>
-        <v>11.09.05.07.01.09.57.00</v>
+      <c r="G9" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1055,9 +1075,8 @@
       <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
-        <f>'[1]KIB A'!G10</f>
-        <v>0</v>
+      <c r="G10" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>

--- a/public/files/template/inventory/kibc.xlsx
+++ b/public/files/template/inventory/kibc.xlsx
@@ -425,6 +425,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -457,12 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,7 +858,7 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G10"/>
+      <selection activeCell="D4" sqref="D4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,42 +881,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
@@ -924,12 +924,10 @@
         <v>Kab./Kota</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="E4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="3"/>
@@ -948,12 +946,10 @@
         <v>Bidang</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="3"/>
@@ -972,12 +968,10 @@
         <v>Unit Organisasi</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="3"/>
@@ -996,12 +990,10 @@
         <v>Sub Unit Organisasi</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H7" s="3"/>
@@ -1020,12 +1012,10 @@
         <v>U P B</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="3"/>
@@ -1046,12 +1036,10 @@
         <v xml:space="preserve">NO. KODE LOKASI </v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="3"/>
@@ -1070,12 +1058,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="E10" s="19" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="3"/>
@@ -1123,33 +1109,33 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="26" t="s">
+      <c r="K13" s="24"/>
+      <c r="L13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="28" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1157,47 +1143,47 @@
       <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
